--- a/data/others/annual_predictions_hpe_low.xlsx
+++ b/data/others/annual_predictions_hpe_low.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -754,7 +754,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -797,7 +797,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E150" t="n">
